--- a/protected/data/master/project.xlsx
+++ b/protected/data/master/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2208" windowWidth="16836" windowHeight="7152" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="2400" yWindow="2208" windowWidth="16836" windowHeight="7152" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
   <si>
     <t>The Hercules 0001 is a 285 ton electric drive locomotive in 4-12-4 configuration. The 12 main driving wheels are 70 inches in diameter and powered by six dual-motor DC motors providing 4400 horsepower in total. Power is supplied through a twin pantograph overhead pickup from a 3000 volt DC line. The locomotive is 90 ft overall, 10 ft wide, and 14 ft tall, with a top speed of 120 mph on level track.</t>
   </si>
@@ -1247,533 +1247,565 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="1">
-        <v>42005</v>
+      <c r="C2" s="2">
+        <v>2</v>
       </c>
       <c r="D2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E2" s="1">
         <v>42032</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>20</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>280</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="2">
-        <v>6</v>
-      </c>
       <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N2" s="2">
-        <v>6</v>
-      </c>
-      <c r="O2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O2" s="2">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1">
-        <v>42033</v>
+      <c r="C3" s="2">
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>42033</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
+      <c r="E3" s="1">
+        <v>42033</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>1.2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>20</v>
       </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N3" s="2">
-        <v>6</v>
-      </c>
-      <c r="O3" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>42033</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>42060</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>20</v>
       </c>
       <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
         <v>1.3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>280</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="2">
-        <v>6</v>
-      </c>
       <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N4" s="2">
-        <v>6</v>
-      </c>
-      <c r="O4" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1">
-        <v>42061</v>
+      <c r="C5" s="2">
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>42061</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
+      <c r="E5" s="1">
+        <v>42061</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>1.4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>20</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N5" s="2">
-        <v>6</v>
-      </c>
-      <c r="O5" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>42061</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>42088</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>20</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1.5</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>490</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="2">
-        <v>6</v>
-      </c>
       <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N6" s="2">
-        <v>6</v>
-      </c>
-      <c r="O6" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1">
-        <v>42089</v>
+      <c r="C7" s="2">
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>42089</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
+      <c r="E7" s="1">
+        <v>42089</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>1.6</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>20</v>
       </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N7" s="2">
-        <v>6</v>
-      </c>
-      <c r="O7" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
         <v>42089</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>42116</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1.7</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>630</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>18</v>
       </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N8" s="2">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1">
-        <v>42117</v>
+      <c r="C9" s="2">
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>42117</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
+      <c r="E9" s="1">
+        <v>42117</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>1.8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>20</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6</v>
-      </c>
-      <c r="O9" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P9" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>42117</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>42144</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>20</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>1.9</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>160</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>14</v>
       </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N10" s="2">
-        <v>6</v>
-      </c>
-      <c r="O10" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="1">
-        <v>42145</v>
+      <c r="C11" s="2">
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>42145</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
+      <c r="E11" s="1">
+        <v>42145</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>20</v>
       </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="N11" s="2">
-        <v>6</v>
-      </c>
-      <c r="O11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6</v>
+      </c>
+      <c r="P11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="Q11" s="2">
         <v>6</v>
       </c>
     </row>
@@ -2143,7 +2175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/protected/data/master/project.xlsx
+++ b/protected/data/master/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2208" windowWidth="16836" windowHeight="7152" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="2400" yWindow="2208" windowWidth="16836" windowHeight="7152"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="4" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="activity_status" sheetId="12" r:id="rId8"/>
     <sheet name="activity_type" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>The Hercules 0001 is a 285 ton electric drive locomotive in 4-12-4 configuration. The 12 main driving wheels are 70 inches in diameter and powered by six dual-motor DC motors providing 4400 horsepower in total. Power is supplied through a twin pantograph overhead pickup from a 3000 volt DC line. The locomotive is 90 ft overall, 10 ft wide, and 14 ft tall, with a top speed of 120 mph on level track.</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Pilot</t>
   </si>
   <si>
-    <t>Prototypes based on the final design are evaluated against the design requirements (verification testing) and against user or customer expectations (validation testing)</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>The idea is developed into a set of product requirements and specifications, market demand is quantified, a preliminary development project is scoped and costed, and the business justification for the product is refined and documented.</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>An idea is found to have sufficient merit to justify formal investigation.</t>
   </si>
   <si>
@@ -189,12 +183,6 @@
     <t>INFRA</t>
   </si>
   <si>
-    <t>Product continuous-improvement project (improvement to existing product)</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>Research project (investigation of fundamental principle anticipated to benefit future product development)</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>Product development project (of product or service to be sold)</t>
   </si>
   <si>
-    <t>DEV</t>
-  </si>
-  <si>
     <t>mfg gate 3</t>
   </si>
   <si>
@@ -304,6 +289,27 @@
   </si>
   <si>
     <t>Activity is active.</t>
+  </si>
+  <si>
+    <t>Product continuous-improvement project (low-risk compared to new product development)</t>
+  </si>
+  <si>
+    <t>PDEV</t>
+  </si>
+  <si>
+    <t>PCI</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Prototypes based on the final design are evaluated against the design requirements (verification testing) and against user or customer expectations (validation testing).</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1033,7 +1039,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1053,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -1064,10 +1070,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1075,10 +1081,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1086,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -1149,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1160,10 +1166,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1200,32 +1206,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1233,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1282,34 +1288,34 @@
         <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
@@ -1329,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -1353,7 +1359,7 @@
         <v>280</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="2">
         <v>6</v>
@@ -1379,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1426,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1450,7 +1456,7 @@
         <v>280</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2">
         <v>6</v>
@@ -1476,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1523,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -1547,7 +1553,7 @@
         <v>490</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L6" s="2">
         <v>6</v>
@@ -1573,7 +1579,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -1620,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1644,7 +1650,7 @@
         <v>630</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L8" s="2">
         <v>18</v>
@@ -1670,7 +1676,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1717,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1741,7 +1747,7 @@
         <v>160</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L10" s="2">
         <v>14</v>
@@ -1767,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1829,10 +1835,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,10 +1933,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2200,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2211,10 +2217,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2252,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2263,10 +2269,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2274,10 +2280,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/protected/data/master/project.xlsx
+++ b/protected/data/master/project.xlsx
@@ -4,98 +4,48 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2208" windowWidth="16836" windowHeight="7152"/>
+    <workbookView xWindow="2400" yWindow="2208" windowWidth="16836" windowHeight="7152" tabRatio="683"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="4" r:id="rId1"/>
     <sheet name="project_phase" sheetId="5" r:id="rId2"/>
     <sheet name="project_status" sheetId="6" r:id="rId3"/>
     <sheet name="project_type" sheetId="7" r:id="rId4"/>
-    <sheet name="activity" sheetId="8" r:id="rId5"/>
-    <sheet name="activity_predecessor_assignment" sheetId="9" r:id="rId6"/>
-    <sheet name="activity_resource_assignment" sheetId="10" r:id="rId7"/>
-    <sheet name="activity_status" sheetId="12" r:id="rId8"/>
-    <sheet name="activity_type" sheetId="11" r:id="rId9"/>
+    <sheet name="project-issue" sheetId="8" r:id="rId5"/>
+    <sheet name="project-issue-predecessor" sheetId="9" r:id="rId6"/>
+    <sheet name="project-issue-user" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
-  <si>
-    <t>The Hercules 0001 is a 285 ton electric drive locomotive in 4-12-4 configuration. The 12 main driving wheels are 70 inches in diameter and powered by six dual-motor DC motors providing 4400 horsepower in total. Power is supplied through a twin pantograph overhead pickup from a 3000 volt DC line. The locomotive is 90 ft overall, 10 ft wide, and 14 ft tall, with a top speed of 120 mph on level track.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
   <si>
     <t>P2015-008</t>
   </si>
   <si>
-    <t>electric drive locomotive</t>
-  </si>
-  <si>
-    <t>The Photo Telephone was based on a standard telephone but using a three-wire interface instead of the typical two (the third carrying the picture data). A pair of charged selenium plates connected to an audio amplifier are used in both the transmit and receive path. The picture is fixed by a kilo-volt charge and then plate developed using a wet continuous chemical process (similar to that used for standard photographic plates and film). A permanent recording of both picture and voice can be made at the receiving station.</t>
-  </si>
-  <si>
     <t>P2015-007</t>
   </si>
   <si>
-    <t>photo-telephone</t>
-  </si>
-  <si>
-    <t>The electric rifle is a personal protection device based on throwing electric charge. The range of the discharge as well as its force can be adjusted, and the charge can travel through walls without loss of energy. The Electric Rifle resembles an over-sized heavy-game firearm, although weighing significantly less and having various dials, levers, gears and wheels on the shoulder stock. Power is provided by a charge storage cylinder in the butt-stock, charged by a small hand-operated dynamo.</t>
-  </si>
-  <si>
     <t>P2015-006</t>
   </si>
   <si>
-    <t>electric rifle</t>
-  </si>
-  <si>
-    <t>The battery is based on a new technology using nickle oxide, ferric oxide and steel tubes with a lithium hydrate electrolyte. Cells can be recharged in half the time as with a comparable wet cell design with a quantum increase in energy density. The battery was designed to power a 4-seat electric runabout, charging the batteries from a charging station or by connection to a trolley line or street lamp.</t>
-  </si>
-  <si>
     <t>P2015-005</t>
   </si>
   <si>
-    <t>rechargeable wet battery</t>
-  </si>
-  <si>
-    <t>Designed by Barton Swift, the submarine is 100 ft long with a 20 ft beam. The hull is triple layered, with a secret inner material for added strength, can remain submerged for 30 days and has a cruising speed of 14mph. Propulsion comes from a gasolene engine driving motor dynamos which then power a new electrical hydrodynamic drive. Two electric cannons firing 25 pound solid shots are provided for repelling sea monsters. The submarine carries all-metal diving suits of a type which require no air hoses or safety lines, using automatic air tanks instead.</t>
-  </si>
-  <si>
     <t>P2015-004</t>
   </si>
   <si>
-    <t>submarine</t>
-  </si>
-  <si>
-    <t>A combination aeroplane-dirigible with conventional biplane wings and twin control rudders, and a rigid, multi-cell aluminum "gas bag" providing for vertical takeoff and landing. The lifting gas is party hydrogen and generated on board. Forward power was generated by a 20-cylinder air-cooled engine (invented by Barton Swift), driving two 8-foot diameter airscrews in a push-pull configuration. Crusing speed is 30 mph with top speed of 80mph (in a moderate wind). Amenities included an observation car with pilot gear, floor-mounted windows and easy chairs, slept 5, and had an electric stove and furnace in the galley.</t>
-  </si>
-  <si>
     <t>P2015-003</t>
   </si>
   <si>
-    <t>aeroplane-dirigable</t>
-  </si>
-  <si>
-    <t>The analog TargetFinder was designed for Lucifer, an aerial fire-fighting platform designed by Tom Swift, and provided a method for accurately placing fire extinguisher bombs. Factors taken into account by the targetfinder include the speed of the airship, the airship altitude, the wind velocity, and the weight of the fire-fighting grenades.</t>
-  </si>
-  <si>
     <t>P2015-002</t>
   </si>
   <si>
-    <t>target finder</t>
-  </si>
-  <si>
-    <t>A wireless set to receive messages from the ground crew in the new and popular 2-seat racing monoplanes. The new wireless will be smaller and weigh significantly less than comparable sets. This project is sponsored by the Universal Flying Machine Company.</t>
-  </si>
-  <si>
     <t>P2015-001</t>
   </si>
   <si>
-    <t>aircraft wireless</t>
-  </si>
-  <si>
     <t>update_user_id</t>
   </si>
   <si>
@@ -141,42 +91,21 @@
     <t>Termination</t>
   </si>
   <si>
-    <t>All processes involved in producing the product and bringing it to market are tested in a controlled environment. Processes evaluated during Pilot include the raw material supply chain, the various production processes, as well as sales and shipping. After the project has passed the Pilot gate, the product is in normal production.</t>
-  </si>
-  <si>
     <t>Pilot</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>A design is completed meeting the new product requirements. Prototypes are typically produced and tested by the project team to mitigate risk.</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
-    <t>The idea is developed into a set of product requirements and specifications, market demand is quantified, a preliminary development project is scoped and costed, and the business justification for the product is refined and documented.</t>
-  </si>
-  <si>
-    <t>An idea is found to have sufficient merit to justify formal investigation.</t>
-  </si>
-  <si>
     <t>Idea</t>
   </si>
   <si>
     <t>Project is active.</t>
   </si>
   <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>Project is closed.</t>
-  </si>
-  <si>
-    <t>INACTIVE</t>
-  </si>
-  <si>
     <t>Infrastructure project</t>
   </si>
   <si>
@@ -240,9 +169,6 @@
     <t>project_id</t>
   </si>
   <si>
-    <t>coordinator_id</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -270,27 +196,6 @@
     <t>predecessor_id</t>
   </si>
   <si>
-    <t>activity_id</t>
-  </si>
-  <si>
-    <t>resource_id</t>
-  </si>
-  <si>
-    <t>TYPE3</t>
-  </si>
-  <si>
-    <t>TYPE2</t>
-  </si>
-  <si>
-    <t>TYPE1</t>
-  </si>
-  <si>
-    <t>Activity is closed.</t>
-  </si>
-  <si>
-    <t>Activity is active.</t>
-  </si>
-  <si>
     <t>Product continuous-improvement project (low-risk compared to new product development)</t>
   </si>
   <si>
@@ -303,13 +208,112 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Prototypes based on the final design are evaluated against the design requirements (verification testing) and against user or customer expectations (validation testing).</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Active</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>NOT STARTED</t>
+  </si>
+  <si>
+    <t>STARTED</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>Project has not been started.</t>
+  </si>
+  <si>
+    <t>Project has been finished.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>issue_id</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>The idea is developed into a set of requirements and specifications, demand is quantified, a development project is scoped and costed, and business justification is refined.</t>
+  </si>
+  <si>
+    <t>A design which satisfies the requirements is completed, and preliminary prototypes may be evaulated by the project team.</t>
+  </si>
+  <si>
+    <t>A prototype is verified to meet requirements, and validated to satisfy demand (user and/or customer expectations).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All processes related to delivering the design to the customer are tested in a controlled environment. Metrics are gathered to show that produced product and processes involved meet expectations (e.g. production processes, final test results, anticipated production yield, order entry, shipping, etc.). </t>
+  </si>
+  <si>
+    <t>Product production or use follows standard processes.</t>
+  </si>
+  <si>
+    <t>A idea is found to have sufficient merit to justify further investigation.</t>
+  </si>
+  <si>
+    <t>Aircraft Wireless</t>
+  </si>
+  <si>
+    <t>Target Finder</t>
+  </si>
+  <si>
+    <t>2-seat racing monoplanes are a popular new sport, and the wireless set allows air crews to receive messages from their ground crew while in-flight. The wireless will be smaller and weigh significantly less than comparable sets. The project is sponsored by the Universal Flying Machine Company.</t>
+  </si>
+  <si>
+    <t>The Target Finder will provide the means for accurately placing fire extinguisher bombs launched from Lucifer - the aerial fire-fighting platform designed by Tom Swift. Factors the Target Finder will take into account include the speed and altitude of Lucifer, the wind velocity and the weight of the fire-fighting grenades.</t>
+  </si>
+  <si>
+    <t>Aero-Dirigable</t>
+  </si>
+  <si>
+    <t>The Aero-Dirigible will combine conventional biplane wings and twin control rudders, with a rigid, multi-cell aluminum "gas bag" for vertical takeoff and landing. The lifting gas will be party hydrogen, and generated on board. Forward power will be generated by a 20-cylinder air-cooled engine invented by Barton Swift, driving two 8-foot diameter airscrews in a push-pull configuration. The crusing speed of the Aero-Dirigible will be 30 mph, with a top speed of 80 mph (in a moderate wind). Amenities will include an observation car with pilot gear, floor-mounted windows and easy chairs, sleeping for 5, and an electric stove and furnace in the galley.</t>
+  </si>
+  <si>
+    <t>Submarine</t>
+  </si>
+  <si>
+    <t>The Submarine will be designed by Barton Swift, and will be 100 ft long with a 20 ft beam. The hull will be triple layered, and include a secret inner material for added strength. The Submarine will be able to remain submerged for 30 days, and will have a cruising speed of 14mph. Propulsion will come from a gasolene engine driving motor dynamos, which then power a new electrical hydrodynamic drive. Two electric cannons firing 25 pound solid shots will be provided for repelling sea monsters. The Submarine will carry all-metal diving suits of a type requiring no air hoses or safety lines, and will use new automatic air tank technology instead.</t>
+  </si>
+  <si>
+    <t>Rechargeable Battery</t>
+  </si>
+  <si>
+    <t>The Rechargeable Batter will be based on a new technology using nickle oxide, ferric oxide and steel tubes, and use a lithium hydrate (wet) electrolyte. It is expected that cells will recharge in half the time compared as traditional wet cells, and with a quantum increase in energy density. The Rechargeable Battery is required for a new 4-seat electric runabout being considered, where the batteries will be charged from a charging station, or by connection to a trolley line or street lamp.</t>
+  </si>
+  <si>
+    <t>Electric Rifle</t>
+  </si>
+  <si>
+    <t>The Electric Rifle will be a personal protection device based on throwing electric charge. The range as well as the force of the discharge will be adjustable, and the charge will to travel through walls without loss of energy. The Electric Rifle is expected to resemble a convention heavy-game rifle, but weigh significantly less. Operating controls (various dials, levers, gears and wheels) will be provided on the shoulder stock. Power will be provided by a charge storage cylinder in the butt-stock, charged by a small hand-operated dynamo.</t>
+  </si>
+  <si>
+    <t>Photo-Telephone</t>
+  </si>
+  <si>
+    <t>The Photo-Telephone will be based on a standard telephone, but will use a three-wire interface instead of the typical two, with the third wire carrying picture data. A pair of charged selenium plates connected to an audio amplifier will be used in both the transmit and receive path. The picture will be fixed by a kilo-volt charge, and the plate developed using a continuous wet chemical process. It will be possible to make a permanent recording of both picture and voice at the receiving station.</t>
+  </si>
+  <si>
+    <t>Hercules 0001</t>
+  </si>
+  <si>
+    <t>Hercules 0001 will be a 285-ton electric-drive locomotive in a 4-12-4 configuration. The 12 main driving wheels will be 70 inches in diameter, and will be powered by six dual-motor DC motors providing 4400 total horsepower. Power will be provided from a twin overhead pantograph, connecting to 3000 volt DC distribution line. The Hercules will be 90 ft overall, 10 ft wide, and 14 ft tall, and have a top speed of 120 mph on level track.</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>OVRHD</t>
+  </si>
+  <si>
+    <t>Work not within the scope of an existing project.</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -655,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +668,7 @@
     <col min="1" max="1" width="5.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.21875" style="2" bestFit="1" customWidth="1"/>
@@ -678,107 +682,83 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="K2" s="2">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="M2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -796,18 +776,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2">
         <v>22</v>
@@ -816,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -834,18 +814,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2">
         <v>22</v>
@@ -854,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -872,18 +852,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F6" s="2">
         <v>22</v>
@@ -892,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -910,18 +890,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F7" s="2">
         <v>22</v>
@@ -930,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -948,18 +928,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2">
         <v>22</v>
@@ -968,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -986,18 +966,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2">
         <v>22</v>
@@ -1006,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1021,6 +1001,44 @@
         <v>42005</v>
       </c>
       <c r="M9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="M10" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1032,92 +1050,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1128,48 +1182,71 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1180,69 +1257,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="5.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1261,557 +1354,590 @@
   <cols>
     <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.77734375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>42005</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="F2" s="1">
         <v>42032</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>20</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>100</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>280</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="2">
-        <v>6</v>
+      <c r="L2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O2" s="2">
-        <v>6</v>
-      </c>
-      <c r="P2" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P2" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>42033</v>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>42033</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
+      <c r="F3" s="1">
+        <v>42033</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>1.2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>20</v>
       </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O3" s="2">
-        <v>6</v>
-      </c>
-      <c r="P3" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>42033</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>42060</v>
-      </c>
-      <c r="F4" s="2">
-        <v>20</v>
       </c>
       <c r="G4" s="2">
         <v>20</v>
       </c>
       <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
         <v>1.3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>280</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6</v>
+      <c r="L4" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O4" s="2">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>42061</v>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>42061</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
+      <c r="F5" s="1">
+        <v>42061</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>1.4</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>20</v>
       </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O5" s="2">
-        <v>6</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>42061</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>42088</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>1.5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>490</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6</v>
+      <c r="L6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O6" s="2">
-        <v>6</v>
-      </c>
-      <c r="P6" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P6" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>42089</v>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>42089</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
+      <c r="F7" s="1">
+        <v>42089</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>1.6</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>20</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O7" s="2">
-        <v>6</v>
-      </c>
-      <c r="P7" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>42089</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>42116</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>20</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
       <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>1.7</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>630</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
         <v>18</v>
       </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O8" s="2">
-        <v>6</v>
-      </c>
-      <c r="P8" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
-        <v>42117</v>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>42117</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
+      <c r="F9" s="1">
+        <v>42117</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>1.8</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>20</v>
       </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O9" s="2">
-        <v>6</v>
-      </c>
-      <c r="P9" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>42117</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>42144</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>20</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>1.9</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>160</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2">
         <v>14</v>
       </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O10" s="2">
-        <v>6</v>
-      </c>
-      <c r="P10" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P10" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
-        <v>42145</v>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>42145</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
+      <c r="F11" s="1">
+        <v>42145</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>20</v>
       </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="O11" s="2">
-        <v>6</v>
-      </c>
-      <c r="P11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P11" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R11" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1835,82 +1961,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1933,357 +2059,242 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/protected/data/master/project.xlsx
+++ b/protected/data/master/project.xlsx
@@ -14,6 +14,7 @@
     <sheet name="project-issue" sheetId="8" r:id="rId5"/>
     <sheet name="project-issue-predecessor" sheetId="9" r:id="rId6"/>
     <sheet name="project-issue-user" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
@@ -304,16 +305,16 @@
     <t>Hercules 0001 will be a 285-ton electric-drive locomotive in a 4-12-4 configuration. The 12 main driving wheels will be 70 inches in diameter, and will be powered by six dual-motor DC motors providing 4400 total horsepower. Power will be provided from a twin overhead pantograph, connecting to 3000 volt DC distribution line. The Hercules will be 90 ft overall, 10 ft wide, and 14 ft tall, and have a top speed of 120 mph on level track.</t>
   </si>
   <si>
-    <t>Overhead</t>
-  </si>
-  <si>
-    <t>OVRHD</t>
-  </si>
-  <si>
-    <t>Work not within the scope of an existing project.</t>
-  </si>
-  <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>Not within scope of another project.</t>
   </si>
 </sst>
 </file>
@@ -726,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
@@ -2062,7 +2063,7 @@
         <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2301,4 +2302,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>